--- a/secure/26e-Oleksandr.xlsx
+++ b/secure/26e-Oleksandr.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Oleksandr-358034</t>
+    <t>26e-Oleksandr-533500</t>
   </si>
   <si>
-    <t>26e-Oleksandr-111096</t>
+    <t>26e-Oleksandr-482396</t>
   </si>
   <si>
-    <t>26e-Oleksandr-1075218</t>
+    <t>26e-Oleksandr-390026</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F200513c"/>
+        <fgColor rgb="Fd1ff289"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS503"/>
+  <dimension ref="A1:WX503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -871,14 +871,11 @@
       </c>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" spans="1:175" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>-0.724</v>
       </c>
       <c r="M71" s="4"/>
-      <c r="FS71" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
@@ -1420,11 +1417,14 @@
       </c>
       <c r="M161" s="4"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:622" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>-0.36</v>
       </c>
       <c r="M162" s="4"/>
+      <c r="WX162" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
@@ -1630,11 +1630,14 @@
       </c>
       <c r="M196" s="4"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:513" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>-0.22</v>
       </c>
       <c r="M197" s="4"/>
+      <c r="SS197" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
@@ -1696,14 +1699,11 @@
       </c>
       <c r="M207" s="4"/>
     </row>
-    <row r="208" spans="1:131" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>-0.176</v>
       </c>
       <c r="M208" s="4"/>
-      <c r="EA208" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
@@ -2635,14 +2635,11 @@
       </c>
       <c r="M363" s="4"/>
     </row>
-    <row r="364" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>0.448</v>
       </c>
       <c r="M364" s="4"/>
-      <c r="AR364" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
@@ -3250,11 +3247,14 @@
       </c>
       <c r="M465" s="4"/>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:521" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>0.856</v>
       </c>
       <c r="M466" s="4"/>
+      <c r="TA466" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
